--- a/发贴表.xlsx
+++ b/发贴表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9947" firstSheet="12" activeTab="22"/>
+    <workbookView windowWidth="22943" windowHeight="9947" firstSheet="14" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="8.22" sheetId="1" r:id="rId1"/>
@@ -30,13 +30,16 @@
     <sheet name="01.16" sheetId="23" r:id="rId21"/>
     <sheet name="01.23" sheetId="24" r:id="rId22"/>
     <sheet name="01.30" sheetId="25" r:id="rId23"/>
+    <sheet name="02.06" sheetId="26" r:id="rId24"/>
+    <sheet name="02.13" sheetId="27" r:id="rId25"/>
+    <sheet name="02.20" sheetId="28" r:id="rId26"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236">
   <si>
     <t>BanG Dream！相关碟片信息及销量数据整理(截止2017.08.22) by @EDZWQ @Enoxacine</t>
   </si>
@@ -696,18 +699,112 @@
   <si>
     <t>*2,031</t>
   </si>
+  <si>
+    <t>BanG Dream！相关碟片信息及销量数据整理(截止2018.02.06) by @EDZWQ @Enoxacine</t>
+  </si>
+  <si>
+    <t>**,183</t>
+  </si>
+  <si>
+    <t>**,235</t>
+  </si>
+  <si>
+    <t>**,282</t>
+  </si>
+  <si>
+    <t>**,460</t>
+  </si>
+  <si>
+    <t>**,152</t>
+  </si>
+  <si>
+    <t>*1,803</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="楷体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Hey-day狂騒曲</t>
+    </r>
+  </si>
+  <si>
+    <t>Afglow二单</t>
+  </si>
+  <si>
+    <t>18.01.31</t>
+  </si>
+  <si>
+    <t>BanG Dream！相关碟片信息及销量数据整理(截止2018.02.13) by @EDZWQ @Enoxacine</t>
+  </si>
+  <si>
+    <t>**,153</t>
+  </si>
+  <si>
+    <t>**,154</t>
+  </si>
+  <si>
+    <t>**,207</t>
+  </si>
+  <si>
+    <t>**,300</t>
+  </si>
+  <si>
+    <t>**,664</t>
+  </si>
+  <si>
+    <t>*2,109</t>
+  </si>
+  <si>
+    <t>BanG Dream！相关碟片信息及销量数据整理(截止2018.02.20) by @EDZWQ @Enoxacine</t>
+  </si>
+  <si>
+    <t>**,228</t>
+  </si>
+  <si>
+    <t>**,371</t>
+  </si>
+  <si>
+    <t>**,956</t>
+  </si>
+  <si>
+    <t>*1,372</t>
+  </si>
+  <si>
+    <t>ゴーカ！ごーかい！？ファントムシーフ！</t>
+  </si>
+  <si>
+    <t>HHW二单</t>
+  </si>
+  <si>
+    <t>18.02.14</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,6 +835,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="0" tint="-0.35"/>
       <name val="楷体"/>
       <charset val="134"/>
@@ -745,6 +856,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,15 +892,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -787,8 +913,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -809,17 +944,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,9 +967,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -851,37 +992,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -908,7 +1019,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,43 +1133,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,55 +1175,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,67 +1199,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1167,16 +1278,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1205,21 +1316,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1237,6 +1333,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1244,13 +1351,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1271,10 +1382,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1283,137 +1394,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1462,6 +1573,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1474,13 +1594,13 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1862,20 +1982,20 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:24">
       <c r="A2" s="6"/>
@@ -1888,20 +2008,20 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:24">
       <c r="A3" s="8"/>
@@ -1914,20 +2034,20 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="10" t="s">
@@ -2592,92 +2712,92 @@
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
     </row>
-    <row r="21" s="21" customFormat="1" spans="1:17">
+    <row r="21" s="24" customFormat="1" spans="1:17">
       <c r="A21" s="13">
         <v>17</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-    </row>
-    <row r="22" s="21" customFormat="1" spans="1:17">
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+    </row>
+    <row r="22" s="24" customFormat="1" spans="1:17">
       <c r="A22" s="13">
         <v>18</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-    </row>
-    <row r="23" s="21" customFormat="1" spans="1:17">
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+    </row>
+    <row r="23" s="24" customFormat="1" spans="1:17">
       <c r="A23" s="13">
         <v>19</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="22" t="s">
+      <c r="C23" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="11">
@@ -2807,20 +2927,20 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:24">
       <c r="A2" s="6"/>
@@ -2833,20 +2953,20 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:24">
       <c r="A3" s="8"/>
@@ -2859,20 +2979,20 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="10" t="s">
@@ -3370,7 +3490,7 @@
       <c r="I16" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="22">
         <v>24222</v>
       </c>
       <c r="K16" s="11"/>
@@ -3782,20 +3902,20 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:24">
       <c r="A2" s="6"/>
@@ -3808,20 +3928,20 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:24">
       <c r="A3" s="8"/>
@@ -3834,20 +3954,20 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="10" t="s">
@@ -4345,7 +4465,7 @@
       <c r="I16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="22">
         <v>24222</v>
       </c>
       <c r="K16" s="11"/>
@@ -4757,20 +4877,20 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:24">
       <c r="A2" s="6"/>
@@ -4783,20 +4903,20 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:24">
       <c r="A3" s="8"/>
@@ -4809,20 +4929,20 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="10" t="s">
@@ -5320,7 +5440,7 @@
       <c r="I16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="22">
         <v>24222</v>
       </c>
       <c r="K16" s="11"/>
@@ -5733,20 +5853,20 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:24">
       <c r="A2" s="6"/>
@@ -5759,20 +5879,20 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:24">
       <c r="A3" s="8"/>
@@ -5785,20 +5905,20 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="10" t="s">
@@ -6296,7 +6416,7 @@
       <c r="I16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="22">
         <v>24222</v>
       </c>
       <c r="K16" s="11"/>
@@ -6708,20 +6828,20 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:24">
       <c r="A2" s="6"/>
@@ -6734,20 +6854,20 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:24">
       <c r="A3" s="8"/>
@@ -6760,20 +6880,20 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="10" t="s">
@@ -7271,7 +7391,7 @@
       <c r="I16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="22">
         <v>24222</v>
       </c>
       <c r="K16" s="11"/>
@@ -7683,20 +7803,20 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:24">
       <c r="A2" s="6"/>
@@ -7709,20 +7829,20 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:24">
       <c r="A3" s="8"/>
@@ -7735,20 +7855,20 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="10" t="s">
@@ -8246,7 +8366,7 @@
       <c r="I16" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="22">
         <v>24460</v>
       </c>
       <c r="K16" s="11"/>
@@ -8676,20 +8796,20 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:24">
       <c r="A2" s="6"/>
@@ -8702,20 +8822,20 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:24">
       <c r="A3" s="8"/>
@@ -8728,20 +8848,20 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="10" t="s">
@@ -9239,7 +9359,7 @@
       <c r="I16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="22">
         <v>24460</v>
       </c>
       <c r="K16" s="11"/>
@@ -9660,20 +9780,20 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:24">
       <c r="A2" s="6"/>
@@ -9686,20 +9806,20 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:24">
       <c r="A3" s="8"/>
@@ -9712,20 +9832,20 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="10" t="s">
@@ -10223,7 +10343,7 @@
       <c r="I16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="22">
         <v>24460</v>
       </c>
       <c r="K16" s="11"/>
@@ -10671,20 +10791,20 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:24">
       <c r="A2" s="6"/>
@@ -10697,20 +10817,20 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:24">
       <c r="A3" s="8"/>
@@ -10723,20 +10843,20 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="10" t="s">
@@ -11234,7 +11354,7 @@
       <c r="I16" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="22">
         <v>24717</v>
       </c>
       <c r="K16" s="11"/>
@@ -11682,20 +11802,20 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:24">
       <c r="A2" s="6"/>
@@ -11708,20 +11828,20 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:24">
       <c r="A3" s="8"/>
@@ -11734,20 +11854,20 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="10" t="s">
@@ -12245,7 +12365,7 @@
       <c r="I16" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="22">
         <v>24913</v>
       </c>
       <c r="K16" s="11"/>
@@ -12693,20 +12813,20 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:24">
       <c r="A2" s="6"/>
@@ -12719,20 +12839,20 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:24">
       <c r="A3" s="8"/>
@@ -12745,20 +12865,20 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="10" t="s">
@@ -13427,92 +13547,92 @@
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
     </row>
-    <row r="21" s="21" customFormat="1" spans="1:17">
+    <row r="21" s="24" customFormat="1" spans="1:17">
       <c r="A21" s="13">
         <v>17</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-    </row>
-    <row r="22" s="21" customFormat="1" spans="1:17">
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+    </row>
+    <row r="22" s="24" customFormat="1" spans="1:17">
       <c r="A22" s="13">
         <v>18</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-    </row>
-    <row r="23" s="21" customFormat="1" spans="1:17">
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+    </row>
+    <row r="23" s="24" customFormat="1" spans="1:17">
       <c r="A23" s="13">
         <v>19</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="22" t="s">
+      <c r="C23" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="11">
@@ -13642,20 +13762,20 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:24">
       <c r="A2" s="6"/>
@@ -13668,20 +13788,20 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:24">
       <c r="A3" s="8"/>
@@ -13694,20 +13814,20 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="10" t="s">
@@ -14205,7 +14325,7 @@
       <c r="I16" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="22">
         <v>25161</v>
       </c>
       <c r="K16" s="11"/>
@@ -14653,20 +14773,20 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:24">
       <c r="A2" s="6"/>
@@ -14679,20 +14799,20 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:24">
       <c r="A3" s="8"/>
@@ -14705,20 +14825,20 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="10" t="s">
@@ -15216,7 +15336,7 @@
       <c r="I16" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="22">
         <v>25325</v>
       </c>
       <c r="K16" s="11"/>
@@ -15664,20 +15784,20 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:24">
       <c r="A2" s="6"/>
@@ -15690,20 +15810,20 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:24">
       <c r="A3" s="8"/>
@@ -15716,20 +15836,20 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="10" t="s">
@@ -16227,7 +16347,7 @@
       <c r="I16" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="22">
         <v>25545</v>
       </c>
       <c r="K16" s="11"/>
@@ -16664,8 +16784,8 @@
   <sheetPr/>
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -16693,20 +16813,20 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:24">
       <c r="A2" s="6"/>
@@ -16719,20 +16839,20 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:24">
       <c r="A3" s="8"/>
@@ -16745,20 +16865,20 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="10" t="s">
@@ -17256,7 +17376,7 @@
       <c r="I16" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="22">
         <v>25705</v>
       </c>
       <c r="K16" s="11"/>
@@ -17370,7 +17490,7 @@
       <c r="H19" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J19" s="11" t="s">
@@ -17409,7 +17529,7 @@
       <c r="H20" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J20" s="12">
@@ -17487,7 +17607,7 @@
       <c r="H22" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J22" s="14">
@@ -17526,7 +17646,7 @@
       <c r="H23" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J23" s="12">
@@ -17658,12 +17778,10 @@
       <c r="Q26" s="11"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="11">
-        <v>23</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -17677,6 +17795,3179 @@
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J3"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:X27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="50.7777777777778" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.7777777777778" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.7777777777778" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.77777777777778" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="12.7777777777778" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:24">
+      <c r="A1" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:24">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:24">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="11">
+        <v>52</v>
+      </c>
+      <c r="H5" s="11">
+        <v>13</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="11">
+        <v>27</v>
+      </c>
+      <c r="H6" s="11">
+        <v>19</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="11">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="12">
+        <v>11460</v>
+      </c>
+      <c r="G7" s="11">
+        <v>10</v>
+      </c>
+      <c r="H7" s="11">
+        <v>21</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="12">
+        <v>17831</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="11">
+        <v>4</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="11">
+        <v>12</v>
+      </c>
+      <c r="H8" s="11">
+        <v>16</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="12">
+        <v>14885</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="11">
+        <v>5</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="11">
+        <v>11</v>
+      </c>
+      <c r="H9" s="11">
+        <v>13</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="12">
+        <v>11368</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="11">
+        <v>6</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="11">
+        <v>22</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="12">
+        <v>11169</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="11">
+        <v>29</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="J11" s="12">
+        <v>30485</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="11">
+        <v>8</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="11">
+        <v>20</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="11">
+        <v>9</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="11">
+        <v>12</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="12">
+        <v>10699</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="11">
+        <v>10</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="11">
+        <v>20</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="11">
+        <v>11</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="11">
+        <v>18</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="11">
+        <v>12</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="12">
+        <v>17926</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="11">
+        <v>23</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="J16" s="22">
+        <v>25894</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="11">
+        <v>13</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="12">
+        <v>14088</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="11">
+        <v>13</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" s="12">
+        <v>20579</v>
+      </c>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="11">
+        <v>14</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="11">
+        <v>22</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="11">
+        <v>15</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="11">
+        <v>21</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="11">
+        <v>16</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="12">
+        <v>11126</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="12">
+        <v>15648</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:17">
+      <c r="A21" s="13">
+        <v>17</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="14">
+        <v>17374</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="13">
+        <v>17</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="J21" s="14">
+        <v>24898</v>
+      </c>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:17">
+      <c r="A22" s="13">
+        <v>18</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="14">
+        <v>10332</v>
+      </c>
+      <c r="G22" s="13">
+        <v>18</v>
+      </c>
+      <c r="H22" s="13">
+        <v>10</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="J22" s="14">
+        <v>14677</v>
+      </c>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:17">
+      <c r="A23" s="13">
+        <v>19</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="14">
+        <v>10603</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="12">
+        <v>14293</v>
+      </c>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="11">
+        <v>20</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="12">
+        <v>14499</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="J24" s="12">
+        <v>22243</v>
+      </c>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="11">
+        <v>21</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="12">
+        <v>10173</v>
+      </c>
+      <c r="G25" s="11">
+        <v>16</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="J25" s="12">
+        <v>13724</v>
+      </c>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="11">
+        <v>22</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="F26" s="12">
+        <v>12221</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="J26" s="12">
+        <v>16055</v>
+      </c>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="11">
+        <v>23</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F27" s="12">
+        <v>13754</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I27" s="12">
+        <v>13754</v>
+      </c>
+      <c r="J27" s="12">
+        <v>13754</v>
+      </c>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J3"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:X27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="50.7777777777778" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.7777777777778" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.7777777777778" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.77777777777778" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="12.7777777777778" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:24">
+      <c r="A1" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:24">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:24">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="11">
+        <v>52</v>
+      </c>
+      <c r="H5" s="11">
+        <v>13</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="11">
+        <v>27</v>
+      </c>
+      <c r="H6" s="11">
+        <v>19</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="11">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="12">
+        <v>11460</v>
+      </c>
+      <c r="G7" s="11">
+        <v>10</v>
+      </c>
+      <c r="H7" s="11">
+        <v>21</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="12">
+        <v>17831</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="11">
+        <v>4</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="11">
+        <v>12</v>
+      </c>
+      <c r="H8" s="11">
+        <v>16</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="12">
+        <v>14885</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="11">
+        <v>5</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="11">
+        <v>11</v>
+      </c>
+      <c r="H9" s="11">
+        <v>13</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="12">
+        <v>11368</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="11">
+        <v>6</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="11">
+        <v>22</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="12">
+        <v>11169</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="11">
+        <v>30</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="J11" s="12">
+        <v>30638</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="11">
+        <v>8</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="11">
+        <v>20</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="11">
+        <v>9</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="11">
+        <v>12</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="12">
+        <v>10699</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="11">
+        <v>10</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="11">
+        <v>20</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="11">
+        <v>11</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="11">
+        <v>18</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="11">
+        <v>12</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="12">
+        <v>17926</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="11">
+        <v>23</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="22">
+        <v>25894</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="11">
+        <v>13</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="12">
+        <v>14088</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="11">
+        <v>13</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="12">
+        <v>20579</v>
+      </c>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="11">
+        <v>14</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="11">
+        <v>22</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="11">
+        <v>15</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="11">
+        <v>21</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="11">
+        <v>16</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="12">
+        <v>11126</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="12">
+        <v>15648</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:17">
+      <c r="A21" s="13">
+        <v>17</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="14">
+        <v>17374</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="13">
+        <v>18</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="J21" s="14">
+        <v>25052</v>
+      </c>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:17">
+      <c r="A22" s="13">
+        <v>18</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="14">
+        <v>10332</v>
+      </c>
+      <c r="G22" s="13">
+        <v>18</v>
+      </c>
+      <c r="H22" s="13">
+        <v>11</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="J22" s="14">
+        <v>14884</v>
+      </c>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:17">
+      <c r="A23" s="13">
+        <v>19</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="14">
+        <v>10603</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="12">
+        <v>14293</v>
+      </c>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="11">
+        <v>20</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="12">
+        <v>14499</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="11">
+        <v>10</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="J24" s="12">
+        <v>22543</v>
+      </c>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="11">
+        <v>21</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="12">
+        <v>10173</v>
+      </c>
+      <c r="G25" s="11">
+        <v>16</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="12">
+        <v>13724</v>
+      </c>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="11">
+        <v>22</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="F26" s="12">
+        <v>12221</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="J26" s="12">
+        <v>16719</v>
+      </c>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="11">
+        <v>23</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F27" s="12">
+        <v>13754</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="J27" s="12">
+        <v>15863</v>
+      </c>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J3"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:X28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27:K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="50.7777777777778" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.7777777777778" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.7777777777778" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.77777777777778" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="12.7777777777778" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:24">
+      <c r="A1" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:24">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:24">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="11">
+        <v>52</v>
+      </c>
+      <c r="H5" s="11">
+        <v>13</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="11">
+        <v>27</v>
+      </c>
+      <c r="H6" s="11">
+        <v>19</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="11">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="12">
+        <v>11460</v>
+      </c>
+      <c r="G7" s="11">
+        <v>10</v>
+      </c>
+      <c r="H7" s="11">
+        <v>21</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="12">
+        <v>17831</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="11">
+        <v>4</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="11">
+        <v>12</v>
+      </c>
+      <c r="H8" s="11">
+        <v>16</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="12">
+        <v>14885</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="11">
+        <v>5</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="11">
+        <v>11</v>
+      </c>
+      <c r="H9" s="11">
+        <v>13</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="12">
+        <v>11368</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="11">
+        <v>6</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="11">
+        <v>22</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="12">
+        <v>11169</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="11">
+        <v>31</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="J11" s="12">
+        <v>30829</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="11">
+        <v>8</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="11">
+        <v>20</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="11">
+        <v>9</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="11">
+        <v>12</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="12">
+        <v>10699</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="11">
+        <v>10</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="11">
+        <v>20</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="11">
+        <v>11</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="11">
+        <v>18</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="11">
+        <v>12</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="12">
+        <v>17926</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="11">
+        <v>23</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="22">
+        <v>25894</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="11">
+        <v>13</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="12">
+        <v>14088</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="11">
+        <v>13</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="12">
+        <v>20579</v>
+      </c>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="11">
+        <v>14</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="11">
+        <v>22</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="11">
+        <v>15</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="11">
+        <v>21</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="11">
+        <v>16</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="12">
+        <v>11126</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="11">
+        <v>10</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="J20" s="12">
+        <v>15839</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:17">
+      <c r="A21" s="13">
+        <v>17</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="14">
+        <v>17374</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="13">
+        <v>18</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="14">
+        <v>25052</v>
+      </c>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:17">
+      <c r="A22" s="13">
+        <v>18</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="14">
+        <v>10332</v>
+      </c>
+      <c r="G22" s="13">
+        <v>18</v>
+      </c>
+      <c r="H22" s="13">
+        <v>11</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="J22" s="14">
+        <v>15112</v>
+      </c>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:17">
+      <c r="A23" s="13">
+        <v>19</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="14">
+        <v>10603</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="12">
+        <v>14293</v>
+      </c>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="11">
+        <v>20</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="12">
+        <v>14499</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="11">
+        <v>11</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="J24" s="12">
+        <v>22914</v>
+      </c>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="11">
+        <v>21</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="12">
+        <v>10173</v>
+      </c>
+      <c r="G25" s="11">
+        <v>16</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="12">
+        <v>13724</v>
+      </c>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="11">
+        <v>22</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="F26" s="12">
+        <v>12221</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J26" s="12">
+        <v>17675</v>
+      </c>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="11">
+        <v>23</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F27" s="12">
+        <v>13754</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="J27" s="12">
+        <v>17235</v>
+      </c>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="17">
+        <v>24</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F28" s="18">
+        <v>13655</v>
+      </c>
+      <c r="G28" s="17">
+        <v>12</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="I28" s="18">
+        <v>13655</v>
+      </c>
+      <c r="J28" s="18">
+        <v>13655</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -17722,20 +21013,20 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:24">
       <c r="A2" s="6"/>
@@ -17748,20 +21039,20 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:24">
       <c r="A3" s="8"/>
@@ -17774,20 +21065,20 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="10" t="s">
@@ -18495,63 +21786,63 @@
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" s="21" customFormat="1" spans="1:17">
+    <row r="22" s="24" customFormat="1" spans="1:17">
       <c r="A22" s="13">
         <v>18</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-    </row>
-    <row r="23" s="21" customFormat="1" spans="1:17">
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+    </row>
+    <row r="23" s="24" customFormat="1" spans="1:17">
       <c r="A23" s="13">
         <v>19</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="22" t="s">
+      <c r="C23" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="11">
@@ -18681,20 +21972,20 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:24">
       <c r="A2" s="6"/>
@@ -18707,20 +21998,20 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:24">
       <c r="A3" s="8"/>
@@ -18733,20 +22024,20 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="10" t="s">
@@ -19244,7 +22535,7 @@
       <c r="I16" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="22">
         <v>23534</v>
       </c>
       <c r="K16" s="11"/>
@@ -19489,34 +22780,34 @@
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" s="21" customFormat="1" spans="1:17">
+    <row r="23" s="24" customFormat="1" spans="1:17">
       <c r="A23" s="13">
         <v>19</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="22" t="s">
+      <c r="C23" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="11">
@@ -19646,20 +22937,20 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:24">
       <c r="A2" s="6"/>
@@ -19672,20 +22963,20 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:24">
       <c r="A3" s="8"/>
@@ -19698,20 +22989,20 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="10" t="s">
@@ -20209,7 +23500,7 @@
       <c r="I16" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="22">
         <v>23710</v>
       </c>
       <c r="K16" s="11"/>
@@ -20454,34 +23745,34 @@
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" s="21" customFormat="1" spans="1:17">
+    <row r="23" s="24" customFormat="1" spans="1:17">
       <c r="A23" s="13">
         <v>19</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="22" t="s">
+      <c r="C23" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="11">
@@ -20611,20 +23902,20 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:24">
       <c r="A2" s="6"/>
@@ -20637,20 +23928,20 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:24">
       <c r="A3" s="8"/>
@@ -20663,20 +23954,20 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="10" t="s">
@@ -21174,7 +24465,7 @@
       <c r="I16" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="22">
         <v>23913</v>
       </c>
       <c r="K16" s="11"/>
@@ -21586,20 +24877,20 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:24">
       <c r="A2" s="6"/>
@@ -21612,20 +24903,20 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:24">
       <c r="A3" s="8"/>
@@ -21638,20 +24929,20 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="10" t="s">
@@ -22149,7 +25440,7 @@
       <c r="I16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="22">
         <v>23913</v>
       </c>
       <c r="K16" s="11"/>
@@ -22561,20 +25852,20 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:24">
       <c r="A2" s="6"/>
@@ -22587,20 +25878,20 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:24">
       <c r="A3" s="8"/>
@@ -22613,20 +25904,20 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="10" t="s">
@@ -23124,7 +26415,7 @@
       <c r="I16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="22">
         <v>23913</v>
       </c>
       <c r="K16" s="11"/>
@@ -23536,20 +26827,20 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:24">
       <c r="A2" s="6"/>
@@ -23562,20 +26853,20 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:24">
       <c r="A3" s="8"/>
@@ -23588,20 +26879,20 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="10" t="s">
@@ -24099,7 +27390,7 @@
       <c r="I16" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="22">
         <v>24078</v>
       </c>
       <c r="K16" s="11"/>
